--- a/Frames.xlsx
+++ b/Frames.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Slot 1</t>
   </si>
@@ -85,13 +85,30 @@
   <si>
     <t>HD-SDI DA
 (PGM)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Frame 01
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ross OpenGear
+PCR 01</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +123,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -115,7 +140,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -138,20 +163,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -159,6 +204,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -464,101 +518,115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:U3"/>
+  <dimension ref="A2:V3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:21" ht="260.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:22" ht="260.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="8"/>
     </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Frames.xlsx
+++ b/Frames.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -140,7 +140,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -163,35 +163,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -199,21 +175,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,35 +493,35 @@
   <dimension ref="A2:V3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23.81640625" customWidth="1"/>
+    <col min="2" max="2" width="7.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" ht="260.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:22" ht="260.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="6"/>
+      <c r="L2" s="4"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
@@ -559,9 +531,9 @@
       <c r="S2" s="7"/>
       <c r="T2" s="6"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="8"/>
+      <c r="V2" s="7"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -624,9 +596,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E2:F2"/>
+  <mergeCells count="3">
     <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="K2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
